--- a/匯入excel檔案測試.xlsx
+++ b/匯入excel檔案測試.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MySQL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JavaAdv\Workspace\Java2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{311189E0-4ADA-4696-8A90-F60157E3126A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F689C09F-D47C-4BEC-97C9-B3ED68596A7F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="11016" xr2:uid="{6312678D-C514-43C1-83DD-8A44E99EE45A}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="77">
   <si>
     <t>轉/寄</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -36,22 +36,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>品名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>廠商品號</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>館別</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金額</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>訂單編號</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -160,10 +144,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>數量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>訂單狀態</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -176,58 +156,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>訂單日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>序</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>型號</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>品牌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>產品館別</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>產品分類</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>條碼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>平台庫存</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>總庫存</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>銷售量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>銷售額</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>銷售日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>YOY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>自動產生(表格的序)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -243,10 +171,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>產品分類</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>銷售原始資料</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -314,6 +238,78 @@
   </si>
   <si>
     <t>鍋蓋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>序(number)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>型號(productId)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品名(productName)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品牌(brand)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>產品館別(productDepartment)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>產品分類(productType)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>條碼(productEAN)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平台庫存(ecQuantity)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>總庫存(quantity)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>銷售量(sales)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>銷售額(salesFigures)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>銷售日期(date)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YOY(yoy)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>訂單日期(date)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金額(amount)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>數量(sales)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>館別(productDepartment)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>廠商品號(productId)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -701,7 +697,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -709,69 +705,69 @@
     <col min="1" max="1" width="21.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.5546875" customWidth="1"/>
-    <col min="9" max="9" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>61</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>3</v>
+        <v>76</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>75</v>
       </c>
       <c r="F1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="G1" t="s">
         <v>0</v>
       </c>
       <c r="H1" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="I1" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="J1" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="K1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="F2" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="G2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -783,30 +779,30 @@
         <v>550</v>
       </c>
       <c r="K2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="F3" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="G3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H3">
         <v>2</v>
@@ -818,30 +814,30 @@
         <v>1000</v>
       </c>
       <c r="K3" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E4" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="F4" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="G4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H4">
         <v>3</v>
@@ -853,30 +849,30 @@
         <v>250</v>
       </c>
       <c r="K4" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E5" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="F5" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="G5" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -888,30 +884,30 @@
         <v>800</v>
       </c>
       <c r="K5" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E6" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="F6" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="G6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -923,30 +919,30 @@
         <v>500</v>
       </c>
       <c r="K6" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E7" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="F7" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="G7" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H7">
         <v>1</v>
@@ -958,30 +954,30 @@
         <v>300</v>
       </c>
       <c r="K7" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E8" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="F8" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="G8" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -993,30 +989,30 @@
         <v>300</v>
       </c>
       <c r="K8" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E9" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="F9" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="G9" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -1028,30 +1024,30 @@
         <v>1500</v>
       </c>
       <c r="K9" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E10" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="F10" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="G10" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H10">
         <v>-1</v>
@@ -1063,7 +1059,7 @@
         <v>550</v>
       </c>
       <c r="K10" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1077,8 +1073,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90A3FA8D-5D1E-4BBD-AA29-2FE059783ABD}">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1096,43 +1092,43 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>2</v>
+        <v>61</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="N1" s="3" t="s">
         <v>1</v>
@@ -1140,46 +1136,46 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/匯入excel檔案測試.xlsx
+++ b/匯入excel檔案測試.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20405"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JavaAdv\Workspace\Java2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Java\JavaClass\AdvWorkSpace\Java2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F689C09F-D47C-4BEC-97C9-B3ED68596A7F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED295729-C876-45F8-BD8F-7950F31A2916}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="11016" xr2:uid="{6312678D-C514-43C1-83DD-8A44E99EE45A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{6312678D-C514-43C1-83DD-8A44E99EE45A}"/>
   </bookViews>
   <sheets>
     <sheet name="momo銷售原始資料" sheetId="1" r:id="rId1"/>
@@ -28,18 +28,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="77">
   <si>
-    <t>轉/寄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>產品貨號</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>訂單編號</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>BD-2023123012345-01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -144,10 +132,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>訂單狀態</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>銷售</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -310,6 +294,22 @@
   </si>
   <si>
     <t>廠商品號(productId)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>訂單編號(orderNumber)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>產品貨號(productCodeMomo)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>訂單狀態(salesOrReturn)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轉/寄(warehouse)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -696,78 +696,81 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD6E0282-C21F-4793-9171-E2A66421C4F1}">
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" customWidth="1"/>
-    <col min="9" max="9" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.7265625" customWidth="1"/>
+    <col min="2" max="2" width="21.6328125" customWidth="1"/>
+    <col min="3" max="3" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.453125" customWidth="1"/>
+    <col min="6" max="6" width="21.6328125" customWidth="1"/>
+    <col min="7" max="7" width="6.453125" customWidth="1"/>
+    <col min="8" max="8" width="10.36328125" customWidth="1"/>
+    <col min="9" max="9" width="14.36328125" customWidth="1"/>
+    <col min="10" max="10" width="12.54296875" customWidth="1"/>
+    <col min="11" max="11" width="10.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
-        <v>2</v>
+        <v>73</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>1</v>
+        <v>74</v>
       </c>
       <c r="C1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1" t="s">
         <v>76</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K1" t="s">
         <v>75</v>
       </c>
-      <c r="F1" t="s">
-        <v>64</v>
-      </c>
-      <c r="G1" t="s">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="H1" t="s">
-        <v>74</v>
-      </c>
-      <c r="I1" t="s">
-        <v>72</v>
-      </c>
-      <c r="J1" t="s">
-        <v>73</v>
-      </c>
-      <c r="K1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -779,30 +782,30 @@
         <v>550</v>
       </c>
       <c r="K2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H3">
         <v>2</v>
@@ -814,30 +817,30 @@
         <v>1000</v>
       </c>
       <c r="K3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" t="s">
         <v>49</v>
       </c>
-      <c r="F4" t="s">
-        <v>53</v>
-      </c>
       <c r="G4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H4">
         <v>3</v>
@@ -849,30 +852,30 @@
         <v>250</v>
       </c>
       <c r="K4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -884,30 +887,30 @@
         <v>800</v>
       </c>
       <c r="K5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E6" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -919,30 +922,30 @@
         <v>500</v>
       </c>
       <c r="K6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G7" t="s">
         <v>29</v>
-      </c>
-      <c r="C7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G7" t="s">
-        <v>32</v>
       </c>
       <c r="H7">
         <v>1</v>
@@ -954,30 +957,30 @@
         <v>300</v>
       </c>
       <c r="K7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G8" t="s">
         <v>30</v>
-      </c>
-      <c r="C8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" t="s">
-        <v>49</v>
-      </c>
-      <c r="F8" t="s">
-        <v>58</v>
-      </c>
-      <c r="G8" t="s">
-        <v>33</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -989,30 +992,30 @@
         <v>300</v>
       </c>
       <c r="K8" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E9" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="G9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -1024,30 +1027,30 @@
         <v>1500</v>
       </c>
       <c r="K9" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E10" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G10" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H10">
         <v>-1</v>
@@ -1059,7 +1062,7 @@
         <v>550</v>
       </c>
       <c r="K10" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1073,109 +1076,115 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90A3FA8D-5D1E-4BBD-AA29-2FE059783ABD}">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="21.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="10.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="24.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="21.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.90625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="N1" s="3" t="s">
-        <v>1</v>
+        <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="F2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="I2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/匯入excel檔案測試.xlsx
+++ b/匯入excel檔案測試.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20405"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Java\JavaClass\AdvWorkSpace\Java2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JavaAdv\Workspace\Java2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED295729-C876-45F8-BD8F-7950F31A2916}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44076191-8378-49F0-802A-0108AF268C73}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{6312678D-C514-43C1-83DD-8A44E99EE45A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="11016" xr2:uid="{6312678D-C514-43C1-83DD-8A44E99EE45A}"/>
   </bookViews>
   <sheets>
     <sheet name="momo銷售原始資料" sheetId="1" r:id="rId1"/>
@@ -249,10 +249,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>條碼(productEAN)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>平台庫存(ecQuantity)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -261,14 +257,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>銷售量(sales)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>銷售額(salesFigures)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>銷售日期(date)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -281,10 +269,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>金額(amount)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>數量(sales)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -310,6 +294,22 @@
   </si>
   <si>
     <t>轉/寄(warehouse)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>銷售額(salesAmount)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>銷售量(salesQuantity)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>條碼(barcode)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金額(price)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -696,61 +696,61 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD6E0282-C21F-4793-9171-E2A66421C4F1}">
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.7265625" customWidth="1"/>
-    <col min="2" max="2" width="21.6328125" customWidth="1"/>
-    <col min="3" max="3" width="18.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.453125" customWidth="1"/>
-    <col min="6" max="6" width="21.6328125" customWidth="1"/>
-    <col min="7" max="7" width="6.453125" customWidth="1"/>
-    <col min="8" max="8" width="10.36328125" customWidth="1"/>
-    <col min="9" max="9" width="14.36328125" customWidth="1"/>
-    <col min="10" max="10" width="12.54296875" customWidth="1"/>
-    <col min="11" max="11" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.77734375" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" customWidth="1"/>
+    <col min="3" max="3" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.44140625" customWidth="1"/>
+    <col min="6" max="6" width="21.6640625" customWidth="1"/>
+    <col min="7" max="7" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.33203125" customWidth="1"/>
+    <col min="9" max="9" width="12.5546875" customWidth="1"/>
+    <col min="10" max="10" width="14.33203125" customWidth="1"/>
+    <col min="11" max="11" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C1" t="s">
         <v>57</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F1" t="s">
         <v>60</v>
       </c>
       <c r="G1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1" t="s">
         <v>76</v>
       </c>
-      <c r="H1" t="s">
-        <v>70</v>
-      </c>
-      <c r="I1" t="s">
-        <v>68</v>
-      </c>
       <c r="J1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -776,16 +776,16 @@
         <v>1</v>
       </c>
       <c r="I2">
+        <v>550</v>
+      </c>
+      <c r="J2">
         <v>20231201</v>
-      </c>
-      <c r="J2">
-        <v>550</v>
       </c>
       <c r="K2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -810,17 +810,17 @@
       <c r="H3">
         <v>2</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="1">
+        <v>1000</v>
+      </c>
+      <c r="J3">
         <v>20231202</v>
-      </c>
-      <c r="J3" s="1">
-        <v>1000</v>
       </c>
       <c r="K3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -846,16 +846,16 @@
         <v>3</v>
       </c>
       <c r="I4">
+        <v>250</v>
+      </c>
+      <c r="J4">
         <v>20231203</v>
-      </c>
-      <c r="J4">
-        <v>250</v>
       </c>
       <c r="K4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -881,16 +881,16 @@
         <v>1</v>
       </c>
       <c r="I5">
+        <v>800</v>
+      </c>
+      <c r="J5">
         <v>20231204</v>
-      </c>
-      <c r="J5">
-        <v>800</v>
       </c>
       <c r="K5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -916,16 +916,16 @@
         <v>1</v>
       </c>
       <c r="I6">
+        <v>500</v>
+      </c>
+      <c r="J6">
         <v>20231205</v>
-      </c>
-      <c r="J6">
-        <v>500</v>
       </c>
       <c r="K6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -951,16 +951,16 @@
         <v>1</v>
       </c>
       <c r="I7">
+        <v>300</v>
+      </c>
+      <c r="J7">
         <v>20231206</v>
-      </c>
-      <c r="J7">
-        <v>300</v>
       </c>
       <c r="K7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -986,16 +986,16 @@
         <v>1</v>
       </c>
       <c r="I8">
+        <v>300</v>
+      </c>
+      <c r="J8">
         <v>20231207</v>
-      </c>
-      <c r="J8">
-        <v>300</v>
       </c>
       <c r="K8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1020,17 +1020,17 @@
       <c r="H9">
         <v>1</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="1">
+        <v>1500</v>
+      </c>
+      <c r="J9">
         <v>20231208</v>
-      </c>
-      <c r="J9" s="1">
-        <v>1500</v>
       </c>
       <c r="K9" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -1056,10 +1056,10 @@
         <v>-1</v>
       </c>
       <c r="I10">
+        <v>550</v>
+      </c>
+      <c r="J10">
         <v>20231201</v>
-      </c>
-      <c r="J10">
-        <v>550</v>
       </c>
       <c r="K10" t="s">
         <v>32</v>
@@ -1076,30 +1076,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90A3FA8D-5D1E-4BBD-AA29-2FE059783ABD}">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.90625" style="2"/>
+    <col min="1" max="1" width="21.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="29.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>55</v>
       </c>
@@ -1119,31 +1119,31 @@
         <v>60</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="N1" s="3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>33</v>
       </c>

--- a/匯入excel檔案測試.xlsx
+++ b/匯入excel檔案測試.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20405"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JavaAdv\Workspace\Java2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Java\JavaClass\AdvWorkSpace\Java2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44076191-8378-49F0-802A-0108AF268C73}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EA8F169-4379-4006-A9F5-08F5BFD5CE3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="11016" xr2:uid="{6312678D-C514-43C1-83DD-8A44E99EE45A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="2" xr2:uid="{6312678D-C514-43C1-83DD-8A44E99EE45A}"/>
   </bookViews>
   <sheets>
     <sheet name="momo銷售原始資料" sheetId="1" r:id="rId1"/>
     <sheet name="momo前台資料表欄位" sheetId="2" r:id="rId2"/>
+    <sheet name="匯入新增所有上架商品(官網資料)" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="82">
   <si>
     <t>BD-2023123012345-01</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -309,7 +310,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>金額(price)</t>
+    <t>金額(售價price)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定價(price)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>產品貨號(productCodePC)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>產品貨號(productCodeMO)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>產品貨號(productCodeSP)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否上架(isLaunch)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -342,12 +363,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -364,7 +391,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -379,6 +406,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -696,31 +729,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD6E0282-C21F-4793-9171-E2A66421C4F1}">
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="21.77734375" customWidth="1"/>
-    <col min="2" max="2" width="21.6640625" customWidth="1"/>
-    <col min="3" max="3" width="18.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.44140625" customWidth="1"/>
-    <col min="6" max="6" width="21.6640625" customWidth="1"/>
-    <col min="7" max="7" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.33203125" customWidth="1"/>
-    <col min="9" max="9" width="12.5546875" customWidth="1"/>
-    <col min="10" max="10" width="14.33203125" customWidth="1"/>
-    <col min="11" max="11" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.81640625" customWidth="1"/>
+    <col min="2" max="2" width="21.6328125" customWidth="1"/>
+    <col min="3" max="3" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.453125" customWidth="1"/>
+    <col min="6" max="6" width="21.6328125" customWidth="1"/>
+    <col min="7" max="7" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.36328125" customWidth="1"/>
+    <col min="9" max="9" width="16" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.36328125" customWidth="1"/>
+    <col min="11" max="11" width="10.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
         <v>69</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="C1" t="s">
         <v>57</v>
@@ -750,7 +783,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -785,7 +818,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -820,7 +853,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -855,7 +888,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -890,7 +923,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -925,7 +958,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -960,7 +993,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -995,7 +1028,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1030,7 +1063,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -1077,29 +1110,29 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="21.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="29.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="21.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="29.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.90625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>55</v>
       </c>
@@ -1143,7 +1176,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>33</v>
       </c>
@@ -1192,4 +1225,102 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C577B86-497C-4170-BD04-82B36E882EB6}">
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="25.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.81640625" customWidth="1"/>
+    <col min="4" max="5" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.7265625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>
--- a/匯入excel檔案測試.xlsx
+++ b/匯入excel檔案測試.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20405"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Java\JavaClass\AdvWorkSpace\Java2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JavaAdv\Workspace\Java2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EA8F169-4379-4006-A9F5-08F5BFD5CE3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC94A678-C34B-4551-A6B9-9BA9703F7192}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="2" xr2:uid="{6312678D-C514-43C1-83DD-8A44E99EE45A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="11016" activeTab="1" xr2:uid="{6312678D-C514-43C1-83DD-8A44E99EE45A}"/>
   </bookViews>
   <sheets>
     <sheet name="momo銷售原始資料" sheetId="1" r:id="rId1"/>
     <sheet name="momo前台資料表欄位" sheetId="2" r:id="rId2"/>
     <sheet name="匯入新增所有上架商品(官網資料)" sheetId="3" r:id="rId3"/>
+    <sheet name="商品管理表格(官網資料)" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="83">
   <si>
     <t>BD-2023123012345-01</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -331,6 +332,10 @@
   </si>
   <si>
     <t>是否上架(isLaunch)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>圖片</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -733,22 +738,22 @@
       <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.81640625" customWidth="1"/>
-    <col min="2" max="2" width="21.6328125" customWidth="1"/>
-    <col min="3" max="3" width="18.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.453125" customWidth="1"/>
-    <col min="6" max="6" width="21.6328125" customWidth="1"/>
-    <col min="7" max="7" width="17.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.36328125" customWidth="1"/>
+    <col min="1" max="1" width="21.77734375" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" customWidth="1"/>
+    <col min="3" max="3" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.44140625" customWidth="1"/>
+    <col min="6" max="6" width="21.6640625" customWidth="1"/>
+    <col min="7" max="7" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.33203125" customWidth="1"/>
     <col min="9" max="9" width="16" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.36328125" customWidth="1"/>
-    <col min="11" max="11" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.33203125" customWidth="1"/>
+    <col min="11" max="11" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>69</v>
       </c>
@@ -783,7 +788,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -818,7 +823,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -853,7 +858,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -888,7 +893,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -923,7 +928,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -958,7 +963,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -993,7 +998,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1028,7 +1033,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1063,7 +1068,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -1109,30 +1114,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90A3FA8D-5D1E-4BBD-AA29-2FE059783ABD}">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="29.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.90625" style="2"/>
+    <col min="1" max="1" width="21.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="29.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>55</v>
       </c>
@@ -1176,7 +1181,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>33</v>
       </c>
@@ -1231,24 +1236,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C577B86-497C-4170-BD04-82B36E882EB6}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.81640625" customWidth="1"/>
-    <col min="4" max="5" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.6328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.7265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.7265625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.77734375" customWidth="1"/>
+    <col min="4" max="5" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>56</v>
       </c>
@@ -1283,7 +1288,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>34</v>
       </c>
@@ -1315,6 +1320,108 @@
         <v>41</v>
       </c>
       <c r="K2" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F4B3D2C-8A97-4017-9B6F-E2FC9FD26751}">
+  <dimension ref="A1:L2"/>
+  <sheetViews>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.77734375" customWidth="1"/>
+    <col min="4" max="4" width="25.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>35</v>
       </c>
     </row>

--- a/匯入excel檔案測試.xlsx
+++ b/匯入excel檔案測試.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JavaAdv\Workspace\Java2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NTPU\git\Java2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC94A678-C34B-4551-A6B9-9BA9703F7192}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{858E61A2-1FDF-4058-8EF4-98E74AE19CC6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="11016" activeTab="1" xr2:uid="{6312678D-C514-43C1-83DD-8A44E99EE45A}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19410" windowHeight="11010" xr2:uid="{6312678D-C514-43C1-83DD-8A44E99EE45A}"/>
   </bookViews>
   <sheets>
     <sheet name="momo銷售原始資料" sheetId="1" r:id="rId1"/>
@@ -734,26 +734,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD6E0282-C21F-4793-9171-E2A66421C4F1}">
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.77734375" customWidth="1"/>
-    <col min="2" max="2" width="21.6640625" customWidth="1"/>
-    <col min="3" max="3" width="18.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.44140625" customWidth="1"/>
-    <col min="6" max="6" width="21.6640625" customWidth="1"/>
-    <col min="7" max="7" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.33203125" customWidth="1"/>
+    <col min="1" max="1" width="21.75" customWidth="1"/>
+    <col min="2" max="2" width="21.625" customWidth="1"/>
+    <col min="3" max="3" width="18.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.5" customWidth="1"/>
+    <col min="6" max="6" width="21.625" customWidth="1"/>
+    <col min="7" max="7" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.375" customWidth="1"/>
     <col min="9" max="9" width="16" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.33203125" customWidth="1"/>
-    <col min="11" max="11" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.375" customWidth="1"/>
+    <col min="11" max="11" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>69</v>
       </c>
@@ -788,7 +788,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -823,7 +823,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -858,7 +858,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -893,7 +893,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -928,7 +928,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -963,7 +963,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -998,7 +998,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1033,7 +1033,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1068,7 +1068,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -1114,30 +1114,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90A3FA8D-5D1E-4BBD-AA29-2FE059783ABD}">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J14"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="29.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="21.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="29.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>55</v>
       </c>
@@ -1181,7 +1181,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>33</v>
       </c>
@@ -1240,20 +1240,20 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.77734375" customWidth="1"/>
-    <col min="4" max="5" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.75" customWidth="1"/>
+    <col min="4" max="5" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>56</v>
       </c>
@@ -1288,7 +1288,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>34</v>
       </c>
@@ -1338,21 +1338,21 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.77734375" customWidth="1"/>
-    <col min="4" max="4" width="25.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="28.77734375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="28.77734375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.109375" customWidth="1"/>
+    <col min="2" max="2" width="18.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.75" customWidth="1"/>
+    <col min="4" max="4" width="25.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.75" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>82</v>
       </c>
@@ -1390,7 +1390,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>36</v>
       </c>

--- a/匯入excel檔案測試.xlsx
+++ b/匯入excel檔案測試.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NTPU\git\Java2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JavaAdv\Workspace\Java2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{858E61A2-1FDF-4058-8EF4-98E74AE19CC6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6A92424-57EF-4C29-A027-711CD5A10814}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19410" windowHeight="11010" xr2:uid="{6312678D-C514-43C1-83DD-8A44E99EE45A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="11016" xr2:uid="{6312678D-C514-43C1-83DD-8A44E99EE45A}"/>
   </bookViews>
   <sheets>
     <sheet name="momo銷售原始資料" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="82">
   <si>
     <t>BD-2023123012345-01</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -259,10 +259,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>銷售日期(date)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>YOY(yoy)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -275,10 +271,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>館別(productDepartment)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>廠商品號(productId)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -291,10 +283,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>訂單狀態(salesOrReturn)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>轉/寄(warehouse)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -336,6 +324,14 @@
   </si>
   <si>
     <t>圖片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>館別(productCategory)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>訂單狀態(salesStatus)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -735,60 +731,60 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.75" customWidth="1"/>
-    <col min="2" max="2" width="21.625" customWidth="1"/>
-    <col min="3" max="3" width="18.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.5" customWidth="1"/>
-    <col min="6" max="6" width="21.625" customWidth="1"/>
-    <col min="7" max="7" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.375" customWidth="1"/>
+    <col min="1" max="1" width="21.77734375" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" customWidth="1"/>
+    <col min="3" max="3" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.44140625" customWidth="1"/>
+    <col min="6" max="6" width="21.6640625" customWidth="1"/>
+    <col min="7" max="7" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.33203125" customWidth="1"/>
     <col min="9" max="9" width="16" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.375" customWidth="1"/>
-    <col min="11" max="11" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.33203125" customWidth="1"/>
+    <col min="11" max="11" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C1" t="s">
         <v>57</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E1" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="F1" t="s">
         <v>60</v>
       </c>
       <c r="G1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="J1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -823,7 +819,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -858,7 +854,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -893,7 +889,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -928,7 +924,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -963,7 +959,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -998,7 +994,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1033,7 +1029,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1068,7 +1064,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -1112,32 +1108,31 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90A3FA8D-5D1E-4BBD-AA29-2FE059783ABD}">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="29.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.875" style="2"/>
+    <col min="1" max="1" width="21.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="29.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>55</v>
       </c>
@@ -1157,7 +1152,7 @@
         <v>60</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>61</v>
@@ -1166,22 +1161,19 @@
         <v>62</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="M1" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M1" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>33</v>
       </c>
@@ -1216,12 +1208,9 @@
         <v>39</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="N2" s="2" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1236,24 +1225,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C577B86-497C-4170-BD04-82B36E882EB6}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.75" customWidth="1"/>
-    <col min="4" max="5" width="14.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.75" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.77734375" customWidth="1"/>
+    <col min="4" max="5" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>56</v>
       </c>
@@ -1261,10 +1250,10 @@
         <v>57</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>58</v>
@@ -1276,19 +1265,19 @@
         <v>60</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I1" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="K1" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>34</v>
       </c>
@@ -1338,35 +1327,35 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="18.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.75" customWidth="1"/>
-    <col min="4" max="4" width="25.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.75" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="28.75" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="28.75" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.125" customWidth="1"/>
+    <col min="2" max="2" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.77734375" customWidth="1"/>
+    <col min="4" max="4" width="25.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>56</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>58</v>
@@ -1378,19 +1367,19 @@
         <v>60</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="J1" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="L1" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="K1" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>36</v>
       </c>

--- a/匯入excel檔案測試.xlsx
+++ b/匯入excel檔案測試.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JavaAdv\Workspace\Java2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6A92424-57EF-4C29-A027-711CD5A10814}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91ABD0D9-3E20-4990-9CB8-FAB7019262A7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="11016" xr2:uid="{6312678D-C514-43C1-83DD-8A44E99EE45A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="11016" activeTab="4" xr2:uid="{6312678D-C514-43C1-83DD-8A44E99EE45A}"/>
   </bookViews>
   <sheets>
     <sheet name="momo銷售原始資料" sheetId="1" r:id="rId1"/>
     <sheet name="momo前台資料表欄位" sheetId="2" r:id="rId2"/>
     <sheet name="匯入新增所有上架商品(官網資料)" sheetId="3" r:id="rId3"/>
     <sheet name="商品管理表格(官網資料)" sheetId="4" r:id="rId4"/>
+    <sheet name="權限設定" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -730,7 +731,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD6E0282-C21F-4793-9171-E2A66421C4F1}">
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -1419,4 +1420,17 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E13803A1-AD88-46D8-9693-BF38BBF13694}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/匯入excel檔案測試.xlsx
+++ b/匯入excel檔案測試.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20405"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20406"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JavaAdv\Workspace\Java2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91ABD0D9-3E20-4990-9CB8-FAB7019262A7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{480EA0B0-8BFD-492B-9746-04D13D7A2F24}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="11016" activeTab="4" xr2:uid="{6312678D-C514-43C1-83DD-8A44E99EE45A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="11016" activeTab="2" xr2:uid="{6312678D-C514-43C1-83DD-8A44E99EE45A}"/>
   </bookViews>
   <sheets>
     <sheet name="momo銷售原始資料" sheetId="1" r:id="rId1"/>
-    <sheet name="momo前台資料表欄位" sheetId="2" r:id="rId2"/>
-    <sheet name="匯入新增所有上架商品(官網資料)" sheetId="3" r:id="rId3"/>
-    <sheet name="商品管理表格(官網資料)" sheetId="4" r:id="rId4"/>
-    <sheet name="權限設定" sheetId="5" r:id="rId5"/>
+    <sheet name="電商前台資料表呈現" sheetId="2" r:id="rId2"/>
+    <sheet name="ALL前台資料表呈現" sheetId="6" r:id="rId3"/>
+    <sheet name="匯入新增所有上架商品(官網資料)" sheetId="3" r:id="rId4"/>
+    <sheet name="商品管理表格(官網資料)" sheetId="4" r:id="rId5"/>
+    <sheet name="權限設定" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="99">
   <si>
     <t>BD-2023123012345-01</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -280,10 +281,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>產品貨號(productCodeMomo)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>轉/寄(warehouse)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -333,6 +330,78 @@
   </si>
   <si>
     <t>訂單狀態(salesStatus)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>產品館別(productType)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>產品分類(productSubType)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模式-商品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模式-品牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模式-分類</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>電商產品館別(ecProductType)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>電商產品分類(ecProductSubType)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模式-館別</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成交訂單量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>總銷售量(salesQuantity)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mo銷售量(salesQuantity)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pc銷售量(salesQuantity)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sp銷售量(salesQuantity)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>總成交訂單量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(統計後)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mo銷售額(salesAmount)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pc銷售額(salesAmount)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sp銷售額(salesAmount)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -340,7 +409,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -364,8 +433,30 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -378,8 +469,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -387,13 +502,93 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -413,6 +608,69 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -755,7 +1013,7 @@
         <v>67</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C1" t="s">
         <v>57</v>
@@ -764,25 +1022,25 @@
         <v>66</v>
       </c>
       <c r="E1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F1" t="s">
         <v>60</v>
       </c>
       <c r="G1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H1" t="s">
         <v>65</v>
       </c>
       <c r="I1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J1" t="s">
         <v>64</v>
       </c>
       <c r="K1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -1109,110 +1367,317 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90A3FA8D-5D1E-4BBD-AA29-2FE059783ABD}">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="29.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="21.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.5546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.109375" style="10" customWidth="1"/>
+    <col min="5" max="5" width="28.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.5546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.44140625" style="10" customWidth="1"/>
+    <col min="8" max="8" width="23.6640625" style="10" customWidth="1"/>
+    <col min="9" max="9" width="16.21875" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.44140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.88671875" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="9"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B2" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C2" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D2" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="H1" s="2" t="s">
+      <c r="E2" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="H2" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I2" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="K1" s="2" t="s">
+      <c r="J2" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="K2" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="L2" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="M1" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+    </row>
+    <row r="3" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B3" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C3" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D3" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E3" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F3" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G3" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H3" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I3" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="L2" s="2" t="s">
+      <c r="J3" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="K3" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="L3" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="M2" s="2" t="s">
-        <v>41</v>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="27"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
+    </row>
+    <row r="5" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="9"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="G7" s="20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="27"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+    </row>
+    <row r="10" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="9"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="F12" s="23" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" s="27"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+    </row>
+    <row r="15" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="9"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="D17" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="E17" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="F17" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="G17" s="26" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="G18" s="17" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1223,6 +1688,431 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D04EA36-B329-4F40-B65B-028A97C4816A}">
+  <dimension ref="A1:R18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.5546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.109375" style="10" customWidth="1"/>
+    <col min="5" max="5" width="33.88671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38.21875" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.44140625" style="10" customWidth="1"/>
+    <col min="8" max="8" width="23.6640625" style="10" customWidth="1"/>
+    <col min="9" max="9" width="27.21875" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="27.21875" style="10" customWidth="1"/>
+    <col min="12" max="12" width="24.77734375" style="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="24.77734375" style="10" customWidth="1"/>
+    <col min="17" max="17" width="24.109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="8.88671875" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="9"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A2" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="M2" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="N2" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="O2" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="P2" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q2" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="R2" s="14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="J3" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="K3" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="L3" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="M3" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="N3" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="O3" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="P3" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q3" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="R3" s="17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A4" s="27"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="27"/>
+      <c r="O4" s="27"/>
+      <c r="P4" s="27"/>
+      <c r="Q4" s="27"/>
+      <c r="R4" s="27"/>
+    </row>
+    <row r="5" spans="1:18" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="9"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A7" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="H7" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="I7" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="J7" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="K7" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="L7" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="M7" s="20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="I8" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="J8" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="K8" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="L8" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="M8" s="17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A9" s="27"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+    </row>
+    <row r="10" spans="1:18" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="9"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A12" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="F12" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="G12" s="23" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" s="16"/>
+      <c r="G13" s="17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A14" s="27"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+    </row>
+    <row r="15" spans="1:18" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A16" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="9"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="D17" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="E17" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="F17" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="G17" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="H17" s="26" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="G18" s="16"/>
+      <c r="H18" s="17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C577B86-497C-4170-BD04-82B36E882EB6}">
   <dimension ref="A1:K2"/>
   <sheetViews>
@@ -1251,10 +2141,10 @@
         <v>57</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>58</v>
@@ -1266,16 +2156,16 @@
         <v>60</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="5" t="s">
         <v>77</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -1320,7 +2210,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F4B3D2C-8A97-4017-9B6F-E2FC9FD26751}">
   <dimension ref="A1:L2"/>
   <sheetViews>
@@ -1344,19 +2234,19 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>56</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>58</v>
@@ -1368,16 +2258,16 @@
         <v>60</v>
       </c>
       <c r="I1" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="5" t="s">
         <v>77</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
@@ -1422,11 +2312,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E13803A1-AD88-46D8-9693-BF38BBF13694}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <sheetData/>
